--- a/nomes_Valores.xlsx
+++ b/nomes_Valores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MDS\MedicalDecisionSupport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B71F9E-FD2F-4835-874B-EF41DAABD9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CBF03F-C64A-4BB8-AE18-F8EB2C107F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{1473DF8F-4E27-4F10-864F-BAC3BC3DB9E2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>neurologicalName</t>
   </si>
@@ -156,13 +156,16 @@
   </si>
   <si>
     <t>Completamente desabilitado; não pode realizar nenhum autocuidado; totalmente confinado à cama ou cadeira</t>
+  </si>
+  <si>
+    <t>PAM &gt; 70 mmHg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,16 +174,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9CDCFE"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFDCDCAA"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,11 +201,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79168AE3-6404-4D32-A482-7736CC823F49}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
@@ -543,181 +539,185 @@
     <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:9" s="1" customFormat="1">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:9" s="1" customFormat="1">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:9" s="1" customFormat="1">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:9" s="1" customFormat="1">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="18" spans="3:3" ht="15.75">
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>